--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #04  ABRIL 2023/CREDITOS  HERRADURA   ABRIL    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #04  ABRIL 2023/CREDITOS  HERRADURA   ABRIL    2023.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19995" windowHeight="11730" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19995" windowHeight="11730" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES  ENERO  2023     " sheetId="1" r:id="rId1"/>
     <sheet name="REMISIONES  FEBRERO  2023" sheetId="3" r:id="rId2"/>
     <sheet name="   REMISIONES     MARZO   2023 " sheetId="4" r:id="rId3"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId4"/>
+    <sheet name=" REMISIONES   ABRIL  2023    " sheetId="5" r:id="rId4"/>
     <sheet name="Hoja6" sheetId="6" r:id="rId5"/>
     <sheet name="Hoja7" sheetId="7" r:id="rId6"/>
   </sheets>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="95">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -280,13 +280,40 @@
     <t>27-Mar-23--28-Mar-23</t>
   </si>
   <si>
-    <t>19-Mar-23--28-Mar-23--</t>
-  </si>
-  <si>
     <t>28-Mar-23--29-Mar-23</t>
   </si>
   <si>
-    <t>30-Mar-23--</t>
+    <t>REMISIONES    POR     CREDITOS         DE   A B R I L       2 0 2 3</t>
+  </si>
+  <si>
+    <t>30-Mar-23--31-Mar-23</t>
+  </si>
+  <si>
+    <t>31-Mar-23--01-ABR-23</t>
+  </si>
+  <si>
+    <t>2-Abr-23--4-Abr-23</t>
+  </si>
+  <si>
+    <t>4-Abr-23--</t>
+  </si>
+  <si>
+    <t>3-Abr-23--4-Abr-23</t>
+  </si>
+  <si>
+    <t>19-Mar-23--28-Mar-23--2-Abr-23--8-Abr-23</t>
+  </si>
+  <si>
+    <t>15-Abr-23--16-Abr-23</t>
+  </si>
+  <si>
+    <t>19-Abr-23--21-Abr-23</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>28-Abr-23--29-Abr-23</t>
   </si>
 </sst>
 </file>
@@ -299,7 +326,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +449,14 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -647,7 +682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -838,6 +873,13 @@
     <xf numFmtId="44" fontId="6" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -872,6 +914,7 @@
   <colors>
     <mruColors>
       <color rgb="FF0000FF"/>
+      <color rgb="FFCC99FF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FF66FFCC"/>
     </mruColors>
@@ -1115,13 +1158,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1168,13 +1211,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1191,6 +1234,117 @@
       <xdr:spPr>
         <a:xfrm rot="5400000">
           <a:off x="5472114" y="24541167"/>
+          <a:ext cx="638173" cy="495298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647703</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EA8ED25-5E55-4F35-9A11-570092F029FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4576765" y="27846340"/>
+          <a:ext cx="581022" cy="590546"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>123829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2272C1A0-23C1-416E-8467-7A61862AE18E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5472114" y="27893967"/>
           <a:ext cx="638173" cy="495298"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1509,25 +1663,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="78"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="B2" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -3550,12 +3704,12 @@
       <c r="B84" s="44"/>
       <c r="C84" s="45"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="80">
+      <c r="E84" s="83">
         <f>E80-G80</f>
         <v>0</v>
       </c>
-      <c r="F84" s="81"/>
-      <c r="G84" s="82"/>
+      <c r="F84" s="84"/>
+      <c r="G84" s="85"/>
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3571,11 +3725,11 @@
       <c r="B86" s="44"/>
       <c r="C86" s="45"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="83" t="s">
+      <c r="E86" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="F86" s="83"/>
-      <c r="G86" s="83"/>
+      <c r="F86" s="86"/>
+      <c r="G86" s="86"/>
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3718,25 +3872,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="78"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="B2" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -6158,12 +6312,12 @@
       <c r="B98" s="44"/>
       <c r="C98" s="45"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="80">
+      <c r="E98" s="83">
         <f>E94-G94</f>
         <v>0</v>
       </c>
-      <c r="F98" s="81"/>
-      <c r="G98" s="82"/>
+      <c r="F98" s="84"/>
+      <c r="G98" s="85"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -6179,11 +6333,11 @@
       <c r="B100" s="44"/>
       <c r="C100" s="45"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="83" t="s">
+      <c r="E100" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="F100" s="83"/>
-      <c r="G100" s="83"/>
+      <c r="F100" s="86"/>
+      <c r="G100" s="86"/>
       <c r="I100" s="3"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -6304,13 +6458,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D82" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A97" sqref="A97"/>
+      <selection pane="bottomRight" activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6329,25 +6483,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="78"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="B2" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -6398,7 +6552,7 @@
         <v>2150</v>
       </c>
       <c r="H4" s="20">
-        <f t="shared" ref="H4:H103" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H97" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="3"/>
@@ -7365,12 +7519,12 @@
         <v>73</v>
       </c>
       <c r="G41" s="32">
-        <f>1800</f>
-        <v>1800</v>
+        <f>1800+305</f>
+        <v>2105</v>
       </c>
       <c r="H41" s="20">
         <f t="shared" si="0"/>
-        <v>305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -7549,7 +7703,7 @@
       <c r="F48" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="G48" s="75">
+      <c r="G48" s="32">
         <f>2000+1976</f>
         <v>3976</v>
       </c>
@@ -7714,7 +7868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="34" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A55" s="72">
         <v>45001</v>
       </c>
@@ -7729,16 +7883,16 @@
       <c r="E55" s="31">
         <v>8120</v>
       </c>
-      <c r="F55" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="G55" s="75">
-        <f>1000+300</f>
-        <v>1300</v>
+      <c r="F55" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G55" s="77">
+        <f>1000+300+1000+5820</f>
+        <v>8120</v>
       </c>
       <c r="H55" s="33">
         <f t="shared" si="0"/>
-        <v>6820</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -8114,7 +8268,7 @@
         <v>45006</v>
       </c>
       <c r="B70" s="70">
-        <f t="shared" ref="B70:B102" si="2">B69+1</f>
+        <f t="shared" ref="B70:B96" si="2">B69+1</f>
         <v>1195</v>
       </c>
       <c r="C70" s="71"/>
@@ -8386,11 +8540,15 @@
       <c r="E80" s="22">
         <v>15660</v>
       </c>
-      <c r="F80" s="23"/>
-      <c r="G80" s="32"/>
+      <c r="F80" s="67">
+        <v>45018</v>
+      </c>
+      <c r="G80" s="68">
+        <v>15660</v>
+      </c>
       <c r="H80" s="20">
         <f t="shared" si="0"/>
-        <v>15660</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -8619,7 +8777,7 @@
         <v>1539</v>
       </c>
       <c r="F89" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G89" s="32">
         <f>800+739</f>
@@ -8697,16 +8855,16 @@
       <c r="E92" s="22">
         <v>1063</v>
       </c>
-      <c r="F92" s="23" t="s">
+      <c r="F92" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="G92" s="32">
-        <f>400</f>
-        <v>400</v>
+      <c r="G92" s="77">
+        <f>400+663</f>
+        <v>1063</v>
       </c>
       <c r="H92" s="20">
         <f t="shared" si="0"/>
-        <v>663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8750,14 +8908,18 @@
       <c r="E94" s="22">
         <v>3447</v>
       </c>
-      <c r="F94" s="23"/>
-      <c r="G94" s="32"/>
+      <c r="F94" s="67">
+        <v>45018</v>
+      </c>
+      <c r="G94" s="68">
+        <v>3447</v>
+      </c>
       <c r="H94" s="20">
         <f t="shared" si="0"/>
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A95" s="73">
         <v>45015</v>
       </c>
@@ -8772,11 +8934,16 @@
       <c r="E95" s="22">
         <v>2024</v>
       </c>
-      <c r="F95" s="23"/>
-      <c r="G95" s="32"/>
+      <c r="F95" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="G95" s="68">
+        <f>800+1224</f>
+        <v>2024</v>
+      </c>
       <c r="H95" s="20">
         <f t="shared" si="0"/>
-        <v>2024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8794,20 +8961,21 @@
       <c r="E96" s="22">
         <v>3474</v>
       </c>
-      <c r="F96" s="23"/>
-      <c r="G96" s="32"/>
+      <c r="F96" s="67">
+        <v>45016</v>
+      </c>
+      <c r="G96" s="68">
+        <v>3474</v>
+      </c>
       <c r="H96" s="20">
         <f t="shared" si="0"/>
-        <v>3474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="73"/>
-      <c r="B97" s="70">
-        <f t="shared" si="2"/>
-        <v>1222</v>
-      </c>
-      <c r="C97" s="71"/>
+      <c r="A97" s="24"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="26"/>
       <c r="D97" s="35"/>
       <c r="E97" s="22"/>
       <c r="F97" s="23"/>
@@ -8817,116 +8985,89 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="73"/>
-      <c r="B98" s="70">
-        <f t="shared" si="2"/>
-        <v>1223</v>
-      </c>
-      <c r="C98" s="71"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="73"/>
-      <c r="B99" s="70">
-        <f t="shared" si="2"/>
-        <v>1224</v>
-      </c>
-      <c r="C99" s="71"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="32"/>
-      <c r="H99" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="73"/>
-      <c r="B100" s="70">
-        <f t="shared" si="2"/>
-        <v>1225</v>
-      </c>
-      <c r="C100" s="71"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="32"/>
-      <c r="H100" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="73"/>
-      <c r="B101" s="70">
-        <f t="shared" si="2"/>
-        <v>1226</v>
-      </c>
-      <c r="C101" s="71"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="24"/>
-      <c r="B102" s="70">
-        <f t="shared" si="2"/>
-        <v>1227</v>
-      </c>
-      <c r="C102" s="26"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="23"/>
-      <c r="G102" s="32"/>
-      <c r="H102" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="24"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="23"/>
-      <c r="G103" s="32"/>
-      <c r="H103" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="44"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="46">
+        <f>SUM(E4:E97)</f>
+        <v>522736</v>
+      </c>
+      <c r="F98" s="47"/>
+      <c r="G98" s="47">
+        <f>SUM(G4:G97)</f>
+        <v>522736</v>
+      </c>
+      <c r="H98" s="48">
+        <f>SUM(H4:H97)</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="3"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="44"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="49"/>
+      <c r="F99" s="50"/>
+      <c r="G99" s="64"/>
+      <c r="H99" s="51"/>
+      <c r="I99" s="3"/>
+    </row>
+    <row r="100" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B100" s="44"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="50"/>
+      <c r="G100" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H100" s="51"/>
+      <c r="I100" s="3"/>
+    </row>
+    <row r="101" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="44"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="52"/>
+      <c r="F101" s="50"/>
+      <c r="G101" s="53"/>
+      <c r="H101" s="51"/>
+      <c r="I101" s="3"/>
+    </row>
+    <row r="102" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B102" s="44"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="83">
+        <f>E98-G98</f>
+        <v>0</v>
+      </c>
+      <c r="F102" s="84"/>
+      <c r="G102" s="85"/>
+      <c r="I102" s="3"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="44"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="49"/>
+      <c r="F103" s="50"/>
+      <c r="G103" s="64"/>
+      <c r="I103" s="3"/>
+    </row>
+    <row r="104" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B104" s="44"/>
       <c r="C104" s="45"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="46">
-        <f>SUM(E4:E103)</f>
-        <v>522736</v>
-      </c>
-      <c r="F104" s="47"/>
-      <c r="G104" s="47">
-        <f>SUM(G4:G103)</f>
-        <v>490343</v>
-      </c>
-      <c r="H104" s="48">
-        <f>SUM(H4:H103)</f>
-        <v>32393</v>
-      </c>
+      <c r="E104" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" s="86"/>
+      <c r="G104" s="86"/>
       <c r="I104" s="3"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -8936,43 +9077,34 @@
       <c r="E105" s="49"/>
       <c r="F105" s="50"/>
       <c r="G105" s="64"/>
-      <c r="H105" s="51"/>
       <c r="I105" s="3"/>
     </row>
-    <row r="106" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B106" s="44"/>
-      <c r="C106" s="45"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F106" s="50"/>
-      <c r="G106" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="H106" s="51"/>
+    <row r="106" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A106" s="24"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="55"/>
+      <c r="F106" s="56"/>
+      <c r="G106" s="65"/>
       <c r="I106" s="3"/>
     </row>
-    <row r="107" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B107" s="44"/>
       <c r="C107" s="45"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="52"/>
+      <c r="E107" s="49"/>
       <c r="F107" s="50"/>
-      <c r="G107" s="53"/>
-      <c r="H107" s="51"/>
+      <c r="G107" s="64"/>
       <c r="I107" s="3"/>
     </row>
-    <row r="108" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B108" s="44"/>
       <c r="C108" s="45"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="80">
-        <f>E104-G104</f>
-        <v>32393</v>
-      </c>
-      <c r="F108" s="81"/>
-      <c r="G108" s="82"/>
+      <c r="E108" s="49"/>
+      <c r="F108" s="50"/>
+      <c r="G108" s="64"/>
       <c r="I108" s="3"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -8984,15 +9116,13 @@
       <c r="G109" s="64"/>
       <c r="I109" s="3"/>
     </row>
-    <row r="110" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B110" s="44"/>
       <c r="C110" s="45"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="F110" s="83"/>
-      <c r="G110" s="83"/>
+      <c r="E110" s="49"/>
+      <c r="F110" s="50"/>
+      <c r="G110" s="64"/>
       <c r="I110" s="3"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -9004,14 +9134,13 @@
       <c r="G111" s="64"/>
       <c r="I111" s="3"/>
     </row>
-    <row r="112" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A112" s="24"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="26"/>
-      <c r="D112" s="54"/>
-      <c r="E112" s="55"/>
-      <c r="F112" s="56"/>
-      <c r="G112" s="65"/>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="44"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="49"/>
+      <c r="F112" s="50"/>
+      <c r="G112" s="64"/>
       <c r="I112" s="3"/>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
@@ -9041,81 +9170,2495 @@
       <c r="G115" s="64"/>
       <c r="I115" s="3"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B116" s="44"/>
-      <c r="C116" s="45"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="49"/>
-      <c r="F116" s="50"/>
-      <c r="G116" s="64"/>
-      <c r="I116" s="3"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B117" s="44"/>
-      <c r="C117" s="45"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="49"/>
-      <c r="F117" s="50"/>
-      <c r="G117" s="64"/>
-      <c r="I117" s="3"/>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B118" s="44"/>
-      <c r="C118" s="45"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="49"/>
-      <c r="F118" s="50"/>
-      <c r="G118" s="64"/>
-      <c r="I118" s="3"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="44"/>
-      <c r="C119" s="45"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="49"/>
-      <c r="F119" s="50"/>
-      <c r="G119" s="64"/>
-      <c r="I119" s="3"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="44"/>
-      <c r="C120" s="45"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="49"/>
-      <c r="F120" s="50"/>
-      <c r="G120" s="64"/>
-      <c r="I120" s="3"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B121" s="44"/>
-      <c r="C121" s="45"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="49"/>
-      <c r="F121" s="50"/>
-      <c r="G121" s="64"/>
-      <c r="I121" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="E110:G110"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="E104:G104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FFCC99FF"/>
+  </sheetPr>
+  <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D82" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D88" sqref="D88"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="13.140625" style="57" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="58" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="60" customWidth="1"/>
+    <col min="7" max="7" width="18" style="66" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>45016</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1222</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="18">
+        <v>1450</v>
+      </c>
+      <c r="F4" s="19">
+        <v>45018</v>
+      </c>
+      <c r="G4" s="62">
+        <v>1450</v>
+      </c>
+      <c r="H4" s="20">
+        <f t="shared" ref="H4:H91" si="0">E4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>45016</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1223</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="22">
+        <v>9830</v>
+      </c>
+      <c r="F5" s="23">
+        <v>45024</v>
+      </c>
+      <c r="G5" s="32">
+        <v>9830</v>
+      </c>
+      <c r="H5" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>45017</v>
+      </c>
+      <c r="B6" s="15">
+        <f t="shared" ref="B6:B69" si="1">B5+1</f>
+        <v>1224</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="22">
+        <v>2288</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="32">
+        <f>1400+888</f>
+        <v>2288</v>
+      </c>
+      <c r="H6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>45017</v>
+      </c>
+      <c r="B7" s="15">
+        <f t="shared" si="1"/>
+        <v>1225</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="22">
+        <v>4782</v>
+      </c>
+      <c r="F7" s="23">
+        <v>45021</v>
+      </c>
+      <c r="G7" s="32">
+        <v>4782</v>
+      </c>
+      <c r="H7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>45017</v>
+      </c>
+      <c r="B8" s="15">
+        <f t="shared" si="1"/>
+        <v>1226</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="22">
+        <v>10131</v>
+      </c>
+      <c r="F8" s="23">
+        <v>45019</v>
+      </c>
+      <c r="G8" s="32">
+        <v>10131</v>
+      </c>
+      <c r="H8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>45018</v>
+      </c>
+      <c r="B9" s="15">
+        <f t="shared" si="1"/>
+        <v>1227</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="22">
+        <v>2116</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="32">
+        <v>2116</v>
+      </c>
+      <c r="H9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>45019</v>
+      </c>
+      <c r="B10" s="15">
+        <f t="shared" si="1"/>
+        <v>1228</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="22">
+        <v>4930</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="32">
+        <f>4000+930</f>
+        <v>4930</v>
+      </c>
+      <c r="H10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>45020</v>
+      </c>
+      <c r="B11" s="15">
+        <f t="shared" si="1"/>
+        <v>1229</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1398</v>
+      </c>
+      <c r="F11" s="23">
+        <v>45024</v>
+      </c>
+      <c r="G11" s="32">
+        <v>1398</v>
+      </c>
+      <c r="H11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>45020</v>
+      </c>
+      <c r="B12" s="15">
+        <f t="shared" si="1"/>
+        <v>1230</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="22">
+        <v>287</v>
+      </c>
+      <c r="F12" s="23">
+        <v>45026</v>
+      </c>
+      <c r="G12" s="32">
+        <v>287</v>
+      </c>
+      <c r="H12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>45021</v>
+      </c>
+      <c r="B13" s="15">
+        <f t="shared" si="1"/>
+        <v>1231</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="22">
+        <v>3603</v>
+      </c>
+      <c r="F13" s="23">
+        <v>45024</v>
+      </c>
+      <c r="G13" s="32">
+        <v>3603</v>
+      </c>
+      <c r="H13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>45022</v>
+      </c>
+      <c r="B14" s="15">
+        <f t="shared" si="1"/>
+        <v>1232</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="22">
+        <v>11340</v>
+      </c>
+      <c r="F14" s="23">
+        <v>45032</v>
+      </c>
+      <c r="G14" s="32">
+        <v>11340</v>
+      </c>
+      <c r="H14" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>45024</v>
+      </c>
+      <c r="B15" s="15">
+        <f t="shared" si="1"/>
+        <v>1233</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="22">
+        <v>1072</v>
+      </c>
+      <c r="F15" s="23">
+        <v>45025</v>
+      </c>
+      <c r="G15" s="32">
+        <v>1072</v>
+      </c>
+      <c r="H15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>45024</v>
+      </c>
+      <c r="B16" s="15">
+        <f t="shared" si="1"/>
+        <v>1234</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="22">
+        <v>5207</v>
+      </c>
+      <c r="F16" s="23">
+        <v>45025</v>
+      </c>
+      <c r="G16" s="32">
+        <v>5207</v>
+      </c>
+      <c r="H16" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>45025</v>
+      </c>
+      <c r="B17" s="15">
+        <f t="shared" si="1"/>
+        <v>1235</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="22">
+        <v>487</v>
+      </c>
+      <c r="F17" s="23">
+        <v>45026</v>
+      </c>
+      <c r="G17" s="32">
+        <v>487</v>
+      </c>
+      <c r="H17" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>45025</v>
+      </c>
+      <c r="B18" s="15">
+        <f t="shared" si="1"/>
+        <v>1236</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="22">
+        <v>2665</v>
+      </c>
+      <c r="F18" s="23">
+        <v>45026</v>
+      </c>
+      <c r="G18" s="32">
+        <v>2665</v>
+      </c>
+      <c r="H18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>45026</v>
+      </c>
+      <c r="B19" s="15">
+        <f t="shared" si="1"/>
+        <v>1237</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="22">
+        <v>1389</v>
+      </c>
+      <c r="F19" s="23">
+        <v>45027</v>
+      </c>
+      <c r="G19" s="32">
+        <v>1389</v>
+      </c>
+      <c r="H19" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>45026</v>
+      </c>
+      <c r="B20" s="15">
+        <f t="shared" si="1"/>
+        <v>1238</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="22">
+        <v>5068</v>
+      </c>
+      <c r="F20" s="23">
+        <v>45027</v>
+      </c>
+      <c r="G20" s="32">
+        <v>5068</v>
+      </c>
+      <c r="H20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>45027</v>
+      </c>
+      <c r="B21" s="15">
+        <f t="shared" si="1"/>
+        <v>1239</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="22">
+        <v>1100</v>
+      </c>
+      <c r="F21" s="23">
+        <v>45028</v>
+      </c>
+      <c r="G21" s="32">
+        <v>1100</v>
+      </c>
+      <c r="H21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>45027</v>
+      </c>
+      <c r="B22" s="15">
+        <f t="shared" si="1"/>
+        <v>1240</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="22">
+        <v>3993</v>
+      </c>
+      <c r="F22" s="23">
+        <v>45028</v>
+      </c>
+      <c r="G22" s="32">
+        <v>3993</v>
+      </c>
+      <c r="H22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>45028</v>
+      </c>
+      <c r="B23" s="15">
+        <f t="shared" si="1"/>
+        <v>1241</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="22">
+        <v>1084</v>
+      </c>
+      <c r="F23" s="23">
+        <v>45029</v>
+      </c>
+      <c r="G23" s="32">
+        <v>1084</v>
+      </c>
+      <c r="H23" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>45028</v>
+      </c>
+      <c r="B24" s="15">
+        <f t="shared" si="1"/>
+        <v>1242</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="22">
+        <v>2501</v>
+      </c>
+      <c r="F24" s="23">
+        <v>45030</v>
+      </c>
+      <c r="G24" s="32">
+        <v>2501</v>
+      </c>
+      <c r="H24" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>45029</v>
+      </c>
+      <c r="B25" s="15">
+        <f t="shared" si="1"/>
+        <v>1243</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="22">
+        <v>1693</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="32">
+        <f>1100+593</f>
+        <v>1693</v>
+      </c>
+      <c r="H25" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>45029</v>
+      </c>
+      <c r="B26" s="15">
+        <f t="shared" si="1"/>
+        <v>1244</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="22">
+        <v>6000</v>
+      </c>
+      <c r="F26" s="23">
+        <v>45038</v>
+      </c>
+      <c r="G26" s="32">
+        <v>6000</v>
+      </c>
+      <c r="H26" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>45030</v>
+      </c>
+      <c r="B27" s="15">
+        <f t="shared" si="1"/>
+        <v>1245</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="22">
+        <v>467</v>
+      </c>
+      <c r="F27" s="23">
+        <v>45034</v>
+      </c>
+      <c r="G27" s="32">
+        <v>467</v>
+      </c>
+      <c r="H27" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>45030</v>
+      </c>
+      <c r="B28" s="15">
+        <f t="shared" si="1"/>
+        <v>1246</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="22">
+        <v>16683</v>
+      </c>
+      <c r="F28" s="23">
+        <v>45039</v>
+      </c>
+      <c r="G28" s="32">
+        <v>16683</v>
+      </c>
+      <c r="H28" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="69">
+        <v>45030</v>
+      </c>
+      <c r="B29" s="70">
+        <f t="shared" si="1"/>
+        <v>1247</v>
+      </c>
+      <c r="C29" s="71"/>
+      <c r="D29" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="22">
+        <v>3456</v>
+      </c>
+      <c r="F29" s="23">
+        <v>45031</v>
+      </c>
+      <c r="G29" s="32">
+        <v>3456</v>
+      </c>
+      <c r="H29" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="69">
+        <v>45031</v>
+      </c>
+      <c r="B30" s="70">
+        <f t="shared" si="1"/>
+        <v>1248</v>
+      </c>
+      <c r="C30" s="71"/>
+      <c r="D30" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="22">
+        <v>3006</v>
+      </c>
+      <c r="F30" s="23">
+        <v>45032</v>
+      </c>
+      <c r="G30" s="32">
+        <v>3006</v>
+      </c>
+      <c r="H30" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="69">
+        <v>45031</v>
+      </c>
+      <c r="B31" s="70">
+        <f t="shared" si="1"/>
+        <v>1249</v>
+      </c>
+      <c r="C31" s="71"/>
+      <c r="D31" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="22">
+        <v>4285</v>
+      </c>
+      <c r="F31" s="23">
+        <v>45032</v>
+      </c>
+      <c r="G31" s="32">
+        <v>4285</v>
+      </c>
+      <c r="H31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="69">
+        <v>45032</v>
+      </c>
+      <c r="B32" s="70">
+        <f t="shared" si="1"/>
+        <v>1250</v>
+      </c>
+      <c r="C32" s="71"/>
+      <c r="D32" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="22">
+        <v>1011</v>
+      </c>
+      <c r="F32" s="23">
+        <v>45033</v>
+      </c>
+      <c r="G32" s="32">
+        <v>1011</v>
+      </c>
+      <c r="H32" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="69">
+        <v>45032</v>
+      </c>
+      <c r="B33" s="70">
+        <f t="shared" si="1"/>
+        <v>1251</v>
+      </c>
+      <c r="C33" s="71"/>
+      <c r="D33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="22">
+        <v>4277</v>
+      </c>
+      <c r="F33" s="23">
+        <v>45033</v>
+      </c>
+      <c r="G33" s="32">
+        <v>4277</v>
+      </c>
+      <c r="H33" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="69">
+        <v>45033</v>
+      </c>
+      <c r="B34" s="70">
+        <f t="shared" si="1"/>
+        <v>1252</v>
+      </c>
+      <c r="C34" s="71"/>
+      <c r="D34" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="22">
+        <v>803</v>
+      </c>
+      <c r="F34" s="23">
+        <v>45034</v>
+      </c>
+      <c r="G34" s="32">
+        <v>803</v>
+      </c>
+      <c r="H34" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="69">
+        <v>45033</v>
+      </c>
+      <c r="B35" s="70">
+        <f t="shared" si="1"/>
+        <v>1253</v>
+      </c>
+      <c r="C35" s="71"/>
+      <c r="D35" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="22">
+        <v>4285</v>
+      </c>
+      <c r="F35" s="23">
+        <v>45034</v>
+      </c>
+      <c r="G35" s="32">
+        <v>4285</v>
+      </c>
+      <c r="H35" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="69">
+        <v>45034</v>
+      </c>
+      <c r="B36" s="70">
+        <f t="shared" si="1"/>
+        <v>1254</v>
+      </c>
+      <c r="C36" s="71"/>
+      <c r="D36" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="22">
+        <v>1456</v>
+      </c>
+      <c r="F36" s="23">
+        <v>45035</v>
+      </c>
+      <c r="G36" s="32">
+        <v>1456</v>
+      </c>
+      <c r="H36" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="69">
+        <v>45034</v>
+      </c>
+      <c r="B37" s="70">
+        <f t="shared" si="1"/>
+        <v>1255</v>
+      </c>
+      <c r="C37" s="71"/>
+      <c r="D37" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="22">
+        <v>2568</v>
+      </c>
+      <c r="F37" s="23">
+        <v>45035</v>
+      </c>
+      <c r="G37" s="32">
+        <v>2568</v>
+      </c>
+      <c r="H37" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="69">
+        <v>45035</v>
+      </c>
+      <c r="B38" s="70">
+        <f t="shared" si="1"/>
+        <v>1256</v>
+      </c>
+      <c r="C38" s="71"/>
+      <c r="D38" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="22">
+        <v>1415</v>
+      </c>
+      <c r="F38" s="23">
+        <v>45036</v>
+      </c>
+      <c r="G38" s="32">
+        <v>1415</v>
+      </c>
+      <c r="H38" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="69">
+        <v>45035</v>
+      </c>
+      <c r="B39" s="70">
+        <f t="shared" si="1"/>
+        <v>1257</v>
+      </c>
+      <c r="C39" s="71"/>
+      <c r="D39" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="22">
+        <v>4127</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="32">
+        <f>3500+627</f>
+        <v>4127</v>
+      </c>
+      <c r="H39" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="69">
+        <v>45035</v>
+      </c>
+      <c r="B40" s="70">
+        <f t="shared" si="1"/>
+        <v>1258</v>
+      </c>
+      <c r="C40" s="71"/>
+      <c r="D40" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="22">
+        <v>3596</v>
+      </c>
+      <c r="F40" s="23">
+        <v>45036</v>
+      </c>
+      <c r="G40" s="32">
+        <v>3596</v>
+      </c>
+      <c r="H40" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="69">
+        <v>45036</v>
+      </c>
+      <c r="B41" s="70">
+        <f t="shared" si="1"/>
+        <v>1259</v>
+      </c>
+      <c r="C41" s="71"/>
+      <c r="D41" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="22">
+        <v>1219</v>
+      </c>
+      <c r="F41" s="23">
+        <v>45037</v>
+      </c>
+      <c r="G41" s="32">
+        <v>1219</v>
+      </c>
+      <c r="H41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="69">
+        <v>45036</v>
+      </c>
+      <c r="B42" s="70">
+        <f t="shared" si="1"/>
+        <v>1260</v>
+      </c>
+      <c r="C42" s="71"/>
+      <c r="D42" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="22">
+        <v>0</v>
+      </c>
+      <c r="F42" s="23"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="69">
+        <v>45036</v>
+      </c>
+      <c r="B43" s="70">
+        <f t="shared" si="1"/>
+        <v>1261</v>
+      </c>
+      <c r="C43" s="71"/>
+      <c r="D43" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="22">
+        <v>0</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="69">
+        <v>45036</v>
+      </c>
+      <c r="B44" s="70">
+        <f t="shared" si="1"/>
+        <v>1262</v>
+      </c>
+      <c r="C44" s="71"/>
+      <c r="D44" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="22">
+        <v>2644</v>
+      </c>
+      <c r="F44" s="23">
+        <v>45037</v>
+      </c>
+      <c r="G44" s="32">
+        <v>2644</v>
+      </c>
+      <c r="H44" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="69">
+        <v>45037</v>
+      </c>
+      <c r="B45" s="70">
+        <f t="shared" si="1"/>
+        <v>1263</v>
+      </c>
+      <c r="C45" s="71"/>
+      <c r="D45" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="22">
+        <v>2972</v>
+      </c>
+      <c r="F45" s="23">
+        <v>45038</v>
+      </c>
+      <c r="G45" s="32">
+        <v>2972</v>
+      </c>
+      <c r="H45" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="69">
+        <v>45037</v>
+      </c>
+      <c r="B46" s="70">
+        <f t="shared" si="1"/>
+        <v>1264</v>
+      </c>
+      <c r="C46" s="71"/>
+      <c r="D46" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="22">
+        <v>1426</v>
+      </c>
+      <c r="F46" s="23">
+        <v>45038</v>
+      </c>
+      <c r="G46" s="32">
+        <v>1426</v>
+      </c>
+      <c r="H46" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="69">
+        <v>45037</v>
+      </c>
+      <c r="B47" s="70">
+        <f t="shared" si="1"/>
+        <v>1265</v>
+      </c>
+      <c r="C47" s="71"/>
+      <c r="D47" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="22">
+        <v>11730</v>
+      </c>
+      <c r="F47" s="23">
+        <v>45049</v>
+      </c>
+      <c r="G47" s="32">
+        <v>11730</v>
+      </c>
+      <c r="H47" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="69">
+        <v>45037</v>
+      </c>
+      <c r="B48" s="70">
+        <f t="shared" si="1"/>
+        <v>1266</v>
+      </c>
+      <c r="C48" s="71"/>
+      <c r="D48" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="22">
+        <v>10400</v>
+      </c>
+      <c r="F48" s="23">
+        <v>45040</v>
+      </c>
+      <c r="G48" s="32">
+        <v>10400</v>
+      </c>
+      <c r="H48" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="69">
+        <v>45038</v>
+      </c>
+      <c r="B49" s="70">
+        <f t="shared" si="1"/>
+        <v>1267</v>
+      </c>
+      <c r="C49" s="71"/>
+      <c r="D49" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="22">
+        <v>491</v>
+      </c>
+      <c r="F49" s="23">
+        <v>45044</v>
+      </c>
+      <c r="G49" s="32">
+        <v>491</v>
+      </c>
+      <c r="H49" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="69">
+        <v>45038</v>
+      </c>
+      <c r="B50" s="70">
+        <f t="shared" si="1"/>
+        <v>1268</v>
+      </c>
+      <c r="C50" s="71"/>
+      <c r="D50" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="22">
+        <v>2080</v>
+      </c>
+      <c r="F50" s="23">
+        <v>45039</v>
+      </c>
+      <c r="G50" s="32">
+        <v>2080</v>
+      </c>
+      <c r="H50" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="69">
+        <v>45038</v>
+      </c>
+      <c r="B51" s="70">
+        <f t="shared" si="1"/>
+        <v>1269</v>
+      </c>
+      <c r="C51" s="71"/>
+      <c r="D51" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="22">
+        <v>870</v>
+      </c>
+      <c r="F51" s="23"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="20">
+        <f t="shared" si="0"/>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="69">
+        <v>45038</v>
+      </c>
+      <c r="B52" s="70">
+        <f t="shared" si="1"/>
+        <v>1270</v>
+      </c>
+      <c r="C52" s="71"/>
+      <c r="D52" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="22">
+        <v>3338</v>
+      </c>
+      <c r="F52" s="23">
+        <v>45039</v>
+      </c>
+      <c r="G52" s="32">
+        <v>3338</v>
+      </c>
+      <c r="H52" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="69">
+        <v>45039</v>
+      </c>
+      <c r="B53" s="70">
+        <f t="shared" si="1"/>
+        <v>1271</v>
+      </c>
+      <c r="C53" s="71"/>
+      <c r="D53" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="22">
+        <v>972</v>
+      </c>
+      <c r="F53" s="23">
+        <v>45041</v>
+      </c>
+      <c r="G53" s="32">
+        <v>972</v>
+      </c>
+      <c r="H53" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="69">
+        <v>45039</v>
+      </c>
+      <c r="B54" s="70">
+        <f t="shared" si="1"/>
+        <v>1272</v>
+      </c>
+      <c r="C54" s="71"/>
+      <c r="D54" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="22">
+        <v>4009</v>
+      </c>
+      <c r="F54" s="23">
+        <v>45040</v>
+      </c>
+      <c r="G54" s="32">
+        <v>4009</v>
+      </c>
+      <c r="H54" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="34" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="72">
+        <v>45040</v>
+      </c>
+      <c r="B55" s="70">
+        <f t="shared" si="1"/>
+        <v>1273</v>
+      </c>
+      <c r="C55" s="71"/>
+      <c r="D55" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="31">
+        <v>550</v>
+      </c>
+      <c r="F55" s="23">
+        <v>45041</v>
+      </c>
+      <c r="G55" s="32">
+        <v>550</v>
+      </c>
+      <c r="H55" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="69">
+        <v>45040</v>
+      </c>
+      <c r="B56" s="70">
+        <f t="shared" si="1"/>
+        <v>1274</v>
+      </c>
+      <c r="C56" s="71"/>
+      <c r="D56" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="22">
+        <v>2075</v>
+      </c>
+      <c r="F56" s="23">
+        <v>45041</v>
+      </c>
+      <c r="G56" s="32">
+        <v>2075</v>
+      </c>
+      <c r="H56" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="69">
+        <v>45040</v>
+      </c>
+      <c r="B57" s="70">
+        <f t="shared" si="1"/>
+        <v>1275</v>
+      </c>
+      <c r="C57" s="71"/>
+      <c r="D57" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="22">
+        <v>1144</v>
+      </c>
+      <c r="F57" s="23">
+        <v>45041</v>
+      </c>
+      <c r="G57" s="32">
+        <v>1144</v>
+      </c>
+      <c r="H57" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="69">
+        <v>45041</v>
+      </c>
+      <c r="B58" s="70">
+        <f t="shared" si="1"/>
+        <v>1276</v>
+      </c>
+      <c r="C58" s="71"/>
+      <c r="D58" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="22">
+        <v>1375</v>
+      </c>
+      <c r="F58" s="23">
+        <v>45042</v>
+      </c>
+      <c r="G58" s="32">
+        <v>1375</v>
+      </c>
+      <c r="H58" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="69">
+        <v>45041</v>
+      </c>
+      <c r="B59" s="70">
+        <f t="shared" si="1"/>
+        <v>1277</v>
+      </c>
+      <c r="C59" s="71"/>
+      <c r="D59" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="22">
+        <v>190</v>
+      </c>
+      <c r="F59" s="23">
+        <v>45042</v>
+      </c>
+      <c r="G59" s="32">
+        <v>190</v>
+      </c>
+      <c r="H59" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="69">
+        <v>45041</v>
+      </c>
+      <c r="B60" s="70">
+        <f t="shared" si="1"/>
+        <v>1278</v>
+      </c>
+      <c r="C60" s="71"/>
+      <c r="D60" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="22">
+        <v>2742</v>
+      </c>
+      <c r="F60" s="23">
+        <v>45042</v>
+      </c>
+      <c r="G60" s="32">
+        <v>2742</v>
+      </c>
+      <c r="H60" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="69">
+        <v>45041</v>
+      </c>
+      <c r="B61" s="70">
+        <f t="shared" si="1"/>
+        <v>1279</v>
+      </c>
+      <c r="C61" s="71"/>
+      <c r="D61" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" s="22">
+        <v>7430</v>
+      </c>
+      <c r="F61" s="23">
+        <v>45043</v>
+      </c>
+      <c r="G61" s="32">
+        <v>7430</v>
+      </c>
+      <c r="H61" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="69">
+        <v>45042</v>
+      </c>
+      <c r="B62" s="70">
+        <f t="shared" si="1"/>
+        <v>1280</v>
+      </c>
+      <c r="C62" s="71"/>
+      <c r="D62" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="22">
+        <v>1414</v>
+      </c>
+      <c r="F62" s="23">
+        <v>45044</v>
+      </c>
+      <c r="G62" s="32">
+        <v>1414</v>
+      </c>
+      <c r="H62" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="69">
+        <v>45042</v>
+      </c>
+      <c r="B63" s="70">
+        <f t="shared" si="1"/>
+        <v>1281</v>
+      </c>
+      <c r="C63" s="71"/>
+      <c r="D63" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="22">
+        <v>1016</v>
+      </c>
+      <c r="F63" s="23">
+        <v>45043</v>
+      </c>
+      <c r="G63" s="32">
+        <v>1016</v>
+      </c>
+      <c r="H63" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="69">
+        <v>45042</v>
+      </c>
+      <c r="B64" s="70">
+        <f t="shared" si="1"/>
+        <v>1282</v>
+      </c>
+      <c r="C64" s="71"/>
+      <c r="D64" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="22">
+        <v>2128</v>
+      </c>
+      <c r="F64" s="23">
+        <v>45043</v>
+      </c>
+      <c r="G64" s="32">
+        <v>2128</v>
+      </c>
+      <c r="H64" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="73">
+        <v>45043</v>
+      </c>
+      <c r="B65" s="70">
+        <f t="shared" si="1"/>
+        <v>1283</v>
+      </c>
+      <c r="C65" s="71"/>
+      <c r="D65" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="22">
+        <v>1100</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G65" s="32">
+        <f>900+200</f>
+        <v>1100</v>
+      </c>
+      <c r="H65" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="73">
+        <v>45043</v>
+      </c>
+      <c r="B66" s="70">
+        <f t="shared" si="1"/>
+        <v>1284</v>
+      </c>
+      <c r="C66" s="71"/>
+      <c r="D66" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="22">
+        <v>3949</v>
+      </c>
+      <c r="F66" s="23">
+        <v>45044</v>
+      </c>
+      <c r="G66" s="32">
+        <v>3949</v>
+      </c>
+      <c r="H66" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="73">
+        <v>45044</v>
+      </c>
+      <c r="B67" s="70">
+        <f t="shared" si="1"/>
+        <v>1285</v>
+      </c>
+      <c r="C67" s="71"/>
+      <c r="D67" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="22">
+        <v>1375</v>
+      </c>
+      <c r="F67" s="23">
+        <v>45045</v>
+      </c>
+      <c r="G67" s="32">
+        <v>1375</v>
+      </c>
+      <c r="H67" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="73">
+        <v>45044</v>
+      </c>
+      <c r="B68" s="70">
+        <f t="shared" si="1"/>
+        <v>1286</v>
+      </c>
+      <c r="C68" s="71"/>
+      <c r="D68" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="22">
+        <v>2948</v>
+      </c>
+      <c r="F68" s="23">
+        <v>45045</v>
+      </c>
+      <c r="G68" s="32">
+        <v>2948</v>
+      </c>
+      <c r="H68" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="73">
+        <v>45044</v>
+      </c>
+      <c r="B69" s="70">
+        <f t="shared" si="1"/>
+        <v>1287</v>
+      </c>
+      <c r="C69" s="71"/>
+      <c r="D69" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="22">
+        <v>11080</v>
+      </c>
+      <c r="F69" s="23"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="20">
+        <f t="shared" si="0"/>
+        <v>11080</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="73">
+        <v>45044</v>
+      </c>
+      <c r="B70" s="70">
+        <f t="shared" ref="B70:B87" si="2">B69+1</f>
+        <v>1288</v>
+      </c>
+      <c r="C70" s="71"/>
+      <c r="D70" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="22">
+        <v>12455</v>
+      </c>
+      <c r="F70" s="23">
+        <v>45047</v>
+      </c>
+      <c r="G70" s="32">
+        <v>12455</v>
+      </c>
+      <c r="H70" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="73">
+        <v>45045</v>
+      </c>
+      <c r="B71" s="70">
+        <f t="shared" si="2"/>
+        <v>1289</v>
+      </c>
+      <c r="C71" s="71"/>
+      <c r="D71" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="22">
+        <v>1726</v>
+      </c>
+      <c r="F71" s="23">
+        <v>45046</v>
+      </c>
+      <c r="G71" s="32">
+        <v>1726</v>
+      </c>
+      <c r="H71" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="73">
+        <v>45045</v>
+      </c>
+      <c r="B72" s="70">
+        <f t="shared" si="2"/>
+        <v>1290</v>
+      </c>
+      <c r="C72" s="71"/>
+      <c r="D72" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="22">
+        <v>4064</v>
+      </c>
+      <c r="F72" s="23">
+        <v>45046</v>
+      </c>
+      <c r="G72" s="32">
+        <v>4064</v>
+      </c>
+      <c r="H72" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="73">
+        <v>45045</v>
+      </c>
+      <c r="B73" s="70">
+        <f t="shared" si="2"/>
+        <v>1291</v>
+      </c>
+      <c r="C73" s="71"/>
+      <c r="D73" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="22">
+        <v>428</v>
+      </c>
+      <c r="F73" s="23">
+        <v>45047</v>
+      </c>
+      <c r="G73" s="32">
+        <v>428</v>
+      </c>
+      <c r="H73" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="73">
+        <v>45046</v>
+      </c>
+      <c r="B74" s="70">
+        <f t="shared" si="2"/>
+        <v>1292</v>
+      </c>
+      <c r="C74" s="71"/>
+      <c r="D74" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="22">
+        <v>625</v>
+      </c>
+      <c r="F74" s="23">
+        <v>45048</v>
+      </c>
+      <c r="G74" s="32">
+        <v>625</v>
+      </c>
+      <c r="H74" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="73">
+        <v>45046</v>
+      </c>
+      <c r="B75" s="70">
+        <f t="shared" si="2"/>
+        <v>1293</v>
+      </c>
+      <c r="C75" s="71"/>
+      <c r="D75" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="22">
+        <v>3560</v>
+      </c>
+      <c r="F75" s="23">
+        <v>45047</v>
+      </c>
+      <c r="G75" s="32">
+        <v>3560</v>
+      </c>
+      <c r="H75" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="73">
+        <v>45047</v>
+      </c>
+      <c r="B76" s="70">
+        <f t="shared" si="2"/>
+        <v>1294</v>
+      </c>
+      <c r="C76" s="71"/>
+      <c r="D76" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="22">
+        <v>1344</v>
+      </c>
+      <c r="F76" s="23">
+        <v>45048</v>
+      </c>
+      <c r="G76" s="32">
+        <v>1344</v>
+      </c>
+      <c r="H76" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="73">
+        <v>45047</v>
+      </c>
+      <c r="B77" s="70">
+        <f t="shared" si="2"/>
+        <v>1295</v>
+      </c>
+      <c r="C77" s="71"/>
+      <c r="D77" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="22">
+        <v>3952</v>
+      </c>
+      <c r="F77" s="23">
+        <v>45048</v>
+      </c>
+      <c r="G77" s="32">
+        <v>3952</v>
+      </c>
+      <c r="H77" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="73">
+        <v>45048</v>
+      </c>
+      <c r="B78" s="70">
+        <f t="shared" si="2"/>
+        <v>1296</v>
+      </c>
+      <c r="C78" s="71"/>
+      <c r="D78" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="22">
+        <v>970</v>
+      </c>
+      <c r="F78" s="74">
+        <v>45048</v>
+      </c>
+      <c r="G78" s="75">
+        <v>700</v>
+      </c>
+      <c r="H78" s="20">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="73">
+        <v>45048</v>
+      </c>
+      <c r="B79" s="70">
+        <f t="shared" si="2"/>
+        <v>1297</v>
+      </c>
+      <c r="C79" s="71"/>
+      <c r="D79" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="22">
+        <v>6672</v>
+      </c>
+      <c r="F79" s="23">
+        <v>45050</v>
+      </c>
+      <c r="G79" s="32">
+        <v>6672</v>
+      </c>
+      <c r="H79" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="73">
+        <v>45048</v>
+      </c>
+      <c r="B80" s="70">
+        <f t="shared" si="2"/>
+        <v>1298</v>
+      </c>
+      <c r="C80" s="71"/>
+      <c r="D80" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="22">
+        <v>955</v>
+      </c>
+      <c r="F80" s="23">
+        <v>45049</v>
+      </c>
+      <c r="G80" s="32">
+        <v>955</v>
+      </c>
+      <c r="H80" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="73">
+        <v>45048</v>
+      </c>
+      <c r="B81" s="70">
+        <f t="shared" si="2"/>
+        <v>1299</v>
+      </c>
+      <c r="C81" s="71"/>
+      <c r="D81" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E81" s="22">
+        <v>10844</v>
+      </c>
+      <c r="F81" s="23"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="20">
+        <f t="shared" si="0"/>
+        <v>10844</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="73">
+        <v>45049</v>
+      </c>
+      <c r="B82" s="70">
+        <f t="shared" si="2"/>
+        <v>1300</v>
+      </c>
+      <c r="C82" s="71"/>
+      <c r="D82" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="22">
+        <v>865</v>
+      </c>
+      <c r="F82" s="23">
+        <v>45050</v>
+      </c>
+      <c r="G82" s="32">
+        <v>865</v>
+      </c>
+      <c r="H82" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="73">
+        <v>45049</v>
+      </c>
+      <c r="B83" s="70">
+        <f t="shared" si="2"/>
+        <v>1301</v>
+      </c>
+      <c r="C83" s="71"/>
+      <c r="D83" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" s="22">
+        <v>2880</v>
+      </c>
+      <c r="F83" s="23">
+        <v>45050</v>
+      </c>
+      <c r="G83" s="32">
+        <v>2880</v>
+      </c>
+      <c r="H83" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="73">
+        <v>45050</v>
+      </c>
+      <c r="B84" s="70">
+        <f t="shared" si="2"/>
+        <v>1302</v>
+      </c>
+      <c r="C84" s="71"/>
+      <c r="D84" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="22">
+        <v>289</v>
+      </c>
+      <c r="F84" s="23"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="20">
+        <f t="shared" si="0"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="73">
+        <v>45050</v>
+      </c>
+      <c r="B85" s="70">
+        <f t="shared" si="2"/>
+        <v>1303</v>
+      </c>
+      <c r="C85" s="71"/>
+      <c r="D85" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="22">
+        <v>1400</v>
+      </c>
+      <c r="F85" s="23"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="20">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="73">
+        <v>45050</v>
+      </c>
+      <c r="B86" s="70">
+        <f t="shared" si="2"/>
+        <v>1304</v>
+      </c>
+      <c r="C86" s="71"/>
+      <c r="D86" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="22">
+        <v>2264</v>
+      </c>
+      <c r="F86" s="23"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="20">
+        <f t="shared" si="0"/>
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="73">
+        <v>45050</v>
+      </c>
+      <c r="B87" s="70">
+        <f t="shared" si="2"/>
+        <v>1305</v>
+      </c>
+      <c r="C87" s="71"/>
+      <c r="D87" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" s="22">
+        <v>1242</v>
+      </c>
+      <c r="F87" s="23"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="20">
+        <f t="shared" si="0"/>
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="73"/>
+      <c r="B88" s="70"/>
+      <c r="C88" s="71"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="73"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="71"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="73"/>
+      <c r="B90" s="70"/>
+      <c r="C90" s="71"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="24"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="44"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="46">
+        <f>SUM(E4:E91)</f>
+        <v>275051</v>
+      </c>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47">
+        <f>SUM(G4:G91)</f>
+        <v>246792</v>
+      </c>
+      <c r="H92" s="48">
+        <f>SUM(H4:H91)</f>
+        <v>28259</v>
+      </c>
+      <c r="I92" s="3"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="44"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="64"/>
+      <c r="H93" s="51"/>
+      <c r="I93" s="3"/>
+    </row>
+    <row r="94" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B94" s="44"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="50"/>
+      <c r="G94" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" s="51"/>
+      <c r="I94" s="3"/>
+    </row>
+    <row r="95" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="44"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="52"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="53"/>
+      <c r="H95" s="51"/>
+      <c r="I95" s="3"/>
+    </row>
+    <row r="96" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B96" s="44"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="83">
+        <f>E92-G92</f>
+        <v>28259</v>
+      </c>
+      <c r="F96" s="84"/>
+      <c r="G96" s="85"/>
+      <c r="I96" s="3"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="44"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="49"/>
+      <c r="F97" s="50"/>
+      <c r="G97" s="64"/>
+      <c r="I97" s="3"/>
+    </row>
+    <row r="98" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B98" s="44"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="86"/>
+      <c r="G98" s="86"/>
+      <c r="I98" s="3"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="44"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="49"/>
+      <c r="F99" s="50"/>
+      <c r="G99" s="64"/>
+      <c r="I99" s="3"/>
+    </row>
+    <row r="100" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A100" s="24"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="54"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="56"/>
+      <c r="G100" s="65"/>
+      <c r="I100" s="3"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="44"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="49"/>
+      <c r="F101" s="50"/>
+      <c r="G101" s="64"/>
+      <c r="I101" s="3"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="44"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="49"/>
+      <c r="F102" s="50"/>
+      <c r="G102" s="64"/>
+      <c r="I102" s="3"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="44"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="49"/>
+      <c r="F103" s="50"/>
+      <c r="G103" s="64"/>
+      <c r="I103" s="3"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="44"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="49"/>
+      <c r="F104" s="50"/>
+      <c r="G104" s="64"/>
+      <c r="I104" s="3"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="44"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="64"/>
+      <c r="I105" s="3"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="44"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="49"/>
+      <c r="F106" s="50"/>
+      <c r="G106" s="64"/>
+      <c r="I106" s="3"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="44"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="49"/>
+      <c r="F107" s="50"/>
+      <c r="G107" s="64"/>
+      <c r="I107" s="3"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="44"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="49"/>
+      <c r="F108" s="50"/>
+      <c r="G108" s="64"/>
+      <c r="I108" s="3"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="44"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="49"/>
+      <c r="F109" s="50"/>
+      <c r="G109" s="64"/>
+      <c r="I109" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="E98:G98"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
